--- a/Horario_India_I/Horarios_India1_Febrero.xlsx
+++ b/Horario_India_I/Horarios_India1_Febrero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/Horarios_SOGEMER/Horarios_Sogemer/Horario_India_I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA155A9-0397-BB43-80DF-51A5CB901B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA8C0F-7457-4646-B8AE-76675014554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diciembre_2023" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +810,36 @@
     <xf numFmtId="49" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,25 +855,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,45 +885,6 @@
     <xf numFmtId="20" fontId="27" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,13 +897,10 @@
     <xf numFmtId="49" fontId="27" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1251,48 +1236,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="76" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="74">
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="84">
         <v>2023</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
     </row>
     <row r="2" spans="1:34" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1945,33 +1930,33 @@
     </row>
     <row r="19" spans="2:23" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="21" spans="2:23" ht="26" x14ac:dyDescent="0.3">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
     </row>
     <row r="22" spans="2:23" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
@@ -2002,76 +1987,76 @@
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="79"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
-      <c r="M24" s="79" t="s">
+      <c r="M24" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="79"/>
+      <c r="N24" s="81"/>
       <c r="O24" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="K25" s="79" t="s">
+      <c r="K25" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="79"/>
+      <c r="L25" s="81"/>
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
-      <c r="R25" s="84" t="s">
+      <c r="R25" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="84"/>
+      <c r="S25" s="82"/>
       <c r="T25" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:23" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
     </row>
     <row r="28" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
@@ -2084,39 +2069,39 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="83"/>
+      <c r="J29" s="80"/>
       <c r="K29" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
-      <c r="O30" s="81" t="s">
+      <c r="O30" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="P30" s="81"/>
+      <c r="P30" s="78"/>
       <c r="Q30" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="M31" s="79" t="s">
+      <c r="M31" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="79"/>
+      <c r="N31" s="81"/>
       <c r="O31" s="41"/>
       <c r="P31" s="41"/>
       <c r="Q31" s="41"/>
@@ -2132,29 +2117,29 @@
     </row>
     <row r="32" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:22" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
     </row>
     <row r="34" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
@@ -2175,10 +2160,10 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="81"/>
+      <c r="G36" s="78"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
       <c r="J36" s="47"/>
@@ -2211,6 +2196,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q1:X1"/>
     <mergeCell ref="B33:V33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B21:V21"/>
@@ -2223,12 +2214,6 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="B27:V27"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q1:X1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
@@ -2288,52 +2273,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="76" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="74">
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="84">
         <v>2024</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -2701,10 +2686,10 @@
       <c r="V6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="86" t="s">
+      <c r="W6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="X6" s="87"/>
+      <c r="X6" s="96"/>
       <c r="Y6" s="53" t="s">
         <v>6</v>
       </c>
@@ -2790,10 +2775,10 @@
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="29" t="s">
         <v>48</v>
       </c>
@@ -2872,10 +2857,10 @@
       <c r="AC8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="88" t="s">
+      <c r="AD8" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" s="89"/>
+      <c r="AE8" s="98"/>
       <c r="AF8" s="34" t="s">
         <v>6</v>
       </c>
@@ -2982,10 +2967,10 @@
       <c r="O10" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="86" t="s">
+      <c r="P10" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="87"/>
+      <c r="Q10" s="96"/>
       <c r="R10" s="29" t="s">
         <v>48</v>
       </c>
@@ -3113,10 +3098,10 @@
       <c r="H12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="96"/>
       <c r="K12" s="29" t="s">
         <v>47</v>
       </c>
@@ -3295,29 +3280,29 @@
       <c r="AG15" s="30"/>
     </row>
     <row r="19" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
       <c r="W19" s="55"/>
     </row>
     <row r="20" spans="2:25" ht="24" x14ac:dyDescent="0.3">
@@ -3353,11 +3338,11 @@
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="59" t="s">
         <v>5</v>
       </c>
@@ -3377,22 +3362,22 @@
     <row r="22" spans="2:25" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="93" t="s">
+      <c r="M22" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
       <c r="P22" s="59" t="s">
         <v>47</v>
       </c>
@@ -3414,20 +3399,20 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="93"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="61"/>
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
       <c r="U23" s="59" t="s">
         <v>48</v>
       </c>
@@ -3459,29 +3444,29 @@
       <c r="W24" s="55"/>
     </row>
     <row r="25" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="55"/>
     </row>
     <row r="26" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3518,11 +3503,11 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="59" t="s">
         <v>21</v>
       </c>
@@ -3542,27 +3527,27 @@
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
       <c r="N28" s="64"/>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92" t="s">
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="92"/>
+      <c r="S28" s="91"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
@@ -3579,26 +3564,26 @@
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
-      <c r="L29" s="93" t="s">
+      <c r="L29" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
       <c r="O29" s="65"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
       <c r="S29" s="65"/>
       <c r="T29" s="65"/>
-      <c r="U29" s="91" t="s">
+      <c r="U29" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="92" t="s">
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" s="92"/>
+      <c r="Y29" s="91"/>
     </row>
     <row r="30" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
@@ -3625,29 +3610,29 @@
       <c r="W30" s="55"/>
     </row>
     <row r="31" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
       <c r="W31" s="55"/>
     </row>
     <row r="32" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3684,11 +3669,11 @@
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="66"/>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="59" t="s">
         <v>22</v>
       </c>
@@ -3708,26 +3693,26 @@
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
       <c r="M34" s="68"/>
-      <c r="N34" s="90" t="s">
+      <c r="N34" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="92" t="s">
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="92"/>
+      <c r="R34" s="91"/>
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
@@ -3744,29 +3729,47 @@
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
       <c r="N35" s="69"/>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="92" t="s">
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="X35" s="92"/>
+      <c r="X35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AL1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="B19:V19"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="E28:H28"/>
@@ -3780,24 +3783,6 @@
     <mergeCell ref="B31:V31"/>
     <mergeCell ref="U29:W29"/>
     <mergeCell ref="R28:S28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="B19:V19"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AL1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
@@ -3816,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3857,52 +3842,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="76" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="74">
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="84">
         <v>2024</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
     </row>
     <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -4210,70 +4195,70 @@
       <c r="B6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="107" t="s">
+      <c r="D6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="96" t="s">
+      <c r="F6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="29" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="96" t="s">
+      <c r="M6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="107" t="s">
+      <c r="O6" s="76" t="s">
         <v>22</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="96" t="s">
+      <c r="Q6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="96" t="s">
+      <c r="R6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="96" t="s">
+      <c r="T6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="29" t="s">
         <v>48</v>
       </c>
       <c r="V6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="96" t="s">
+      <c r="W6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="97" t="s">
+      <c r="X6" s="74" t="s">
         <v>59</v>
       </c>
       <c r="Y6" s="53" t="s">
@@ -4282,19 +4267,19 @@
       <c r="Z6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="96" t="s">
+      <c r="AA6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="96" t="s">
+      <c r="AB6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="96" t="s">
+      <c r="AC6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="105" t="s">
+      <c r="AD6" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="AE6" s="106"/>
+      <c r="AE6" s="102"/>
       <c r="AF6" s="29" t="s">
         <v>44</v>
       </c>
@@ -4317,36 +4302,36 @@
     </row>
     <row r="7" spans="1:38" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
       <c r="AH7" s="21"/>
@@ -4359,52 +4344,52 @@
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="29" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="76" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="107" t="s">
+      <c r="K8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="76" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="102" t="s">
+      <c r="N8" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="101" t="s">
+      <c r="O8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="96" t="s">
+      <c r="P8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="96" t="s">
+      <c r="Q8" s="29" t="s">
         <v>44</v>
       </c>
       <c r="R8" s="53" t="s">
@@ -4413,38 +4398,38 @@
       <c r="S8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="96" t="s">
+      <c r="T8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="97" t="s">
+      <c r="U8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="103" t="s">
+      <c r="W8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="96" t="s">
+      <c r="X8" s="100"/>
+      <c r="Y8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="96" t="s">
+      <c r="Z8" s="29" t="s">
         <v>45</v>
       </c>
       <c r="AA8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AB8" s="96" t="s">
+      <c r="AB8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="96" t="s">
+      <c r="AC8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="108" t="s">
+      <c r="AD8" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="109"/>
+      <c r="AE8" s="104"/>
       <c r="AF8" s="34" t="s">
         <v>6</v>
       </c>
@@ -4467,36 +4452,36 @@
     </row>
     <row r="9" spans="1:38" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="21"/>
@@ -4509,29 +4494,29 @@
       <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="29" t="s">
         <v>44</v>
       </c>
       <c r="K10" s="53" t="s">
@@ -4540,59 +4525,59 @@
       <c r="L10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="29" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="103" t="s">
+      <c r="P10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="96" t="s">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="96" t="s">
+      <c r="S10" s="29" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="96" t="s">
+      <c r="U10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="107" t="s">
+      <c r="V10" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="96" t="s">
+      <c r="W10" s="29" t="s">
         <v>46</v>
       </c>
       <c r="X10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Y10" s="96" t="s">
+      <c r="Y10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="100" t="s">
+      <c r="Z10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="107" t="s">
+      <c r="AA10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="96"/>
+      <c r="AE10" s="29"/>
       <c r="AF10" s="52" t="s">
         <v>22</v>
       </c>
@@ -4615,36 +4600,36 @@
     </row>
     <row r="11" spans="1:38" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
       <c r="AH11" s="3"/>
@@ -4657,10 +4642,10 @@
       <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="53" t="s">
@@ -4669,80 +4654,80 @@
       <c r="E12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="96" t="s">
+      <c r="G12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="96" t="s">
+      <c r="J12" s="100"/>
+      <c r="K12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="96" t="s">
+      <c r="L12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="96" t="s">
+      <c r="M12" s="29" t="s">
         <v>48</v>
       </c>
       <c r="N12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="99" t="s">
+      <c r="O12" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="96" t="s">
+      <c r="P12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="96" t="s">
+      <c r="Q12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="96" t="s">
+      <c r="R12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="107" t="s">
+      <c r="S12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="96" t="s">
+      <c r="T12" s="29" t="s">
         <v>48</v>
       </c>
       <c r="U12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="102" t="s">
+      <c r="V12" s="75" t="s">
         <v>44</v>
       </c>
       <c r="W12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="X12" s="96" t="s">
+      <c r="X12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="107" t="s">
+      <c r="Y12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AA12" s="96" t="s">
+      <c r="AA12" s="29" t="s">
         <v>48</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="99" t="s">
+      <c r="AC12" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="96" t="s">
+      <c r="AD12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AE12" s="102"/>
+      <c r="AE12" s="75"/>
       <c r="AF12" s="32" t="s">
         <v>43</v>
       </c>
@@ -4858,29 +4843,29 @@
       <c r="AG15" s="30"/>
     </row>
     <row r="19" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
       <c r="W19" s="55"/>
     </row>
     <row r="20" spans="2:25" ht="24" x14ac:dyDescent="0.3">
@@ -4916,11 +4901,11 @@
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="59" t="s">
         <v>5</v>
       </c>
@@ -4940,22 +4925,22 @@
     <row r="22" spans="2:25" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="93" t="s">
+      <c r="M22" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
       <c r="P22" s="59" t="s">
         <v>47</v>
       </c>
@@ -4977,20 +4962,20 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="93"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="61"/>
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="95" t="s">
+      <c r="R23" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
       <c r="U23" s="59" t="s">
         <v>48</v>
       </c>
@@ -5022,29 +5007,29 @@
       <c r="W24" s="55"/>
     </row>
     <row r="25" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="55"/>
     </row>
     <row r="26" spans="2:25" ht="5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5081,11 +5066,11 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="59" t="s">
         <v>21</v>
       </c>
@@ -5105,27 +5090,27 @@
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
       <c r="N28" s="64"/>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92" t="s">
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="92"/>
+      <c r="S28" s="91"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
@@ -5142,26 +5127,26 @@
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
-      <c r="L29" s="93" t="s">
+      <c r="L29" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
       <c r="O29" s="65"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
       <c r="S29" s="65"/>
       <c r="T29" s="65"/>
-      <c r="U29" s="91" t="s">
+      <c r="U29" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="92" t="s">
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" s="92"/>
+      <c r="Y29" s="91"/>
     </row>
     <row r="30" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="55"/>
@@ -5188,29 +5173,29 @@
       <c r="W30" s="55"/>
     </row>
     <row r="31" spans="2:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
       <c r="W31" s="55"/>
     </row>
     <row r="32" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5247,11 +5232,11 @@
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="66"/>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="59" t="s">
         <v>22</v>
       </c>
@@ -5271,26 +5256,26 @@
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
-      <c r="E34" s="91" t="s">
+      <c r="E34" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
       <c r="M34" s="68"/>
-      <c r="N34" s="90" t="s">
+      <c r="N34" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="92" t="s">
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="92"/>
+      <c r="R34" s="91"/>
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
@@ -5307,40 +5292,34 @@
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
       <c r="N35" s="69"/>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="92" t="s">
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="X35" s="92"/>
+      <c r="X35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="B31:V31"/>
-    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AL1"/>
+    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="Q34:R34"/>
@@ -5351,17 +5330,23 @@
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="R28:S28"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="B31:V31"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="B19:V19"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AL1"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
